--- a/Results/Batch_4/Basics.xlsx
+++ b/Results/Batch_4/Basics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/indrajeet/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/indrajeet/Documents/git/Computational-Sprinting-for-Browsers/Results/Batch_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50972511-76A1-DF49-A3CE-E3788FDADEE9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BA20F2-3397-4D4A-9D45-3FABB3464381}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{C1A0E7F3-1DB2-8C48-844D-9151C7A05654}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:P192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +559,7 @@
         <v>1190.43</v>
       </c>
       <c r="I7" s="2">
-        <v>1080.6600000000001</v>
+        <v>1084.8800000000001</v>
       </c>
       <c r="J7" s="2">
         <v>1123.8</v>
@@ -577,10 +577,10 @@
         <v>1198.18</v>
       </c>
       <c r="O7" s="2">
-        <v>1161.01</v>
+        <v>1155.17</v>
       </c>
       <c r="P7" s="2">
-        <v>1167.0999999999999</v>
+        <v>1141.67</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>23.492000000000001</v>
       </c>
       <c r="I11" s="2">
-        <v>17.533000000000001</v>
+        <v>26.021000000000001</v>
       </c>
       <c r="J11" s="2">
         <v>24.97</v>
@@ -683,7 +683,7 @@
         <v>26.436</v>
       </c>
       <c r="P11" s="2">
-        <v>25.3004</v>
+        <v>28.706</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
